--- a/src/main/resources/CompilerDictionary/LocatorDictionary/ProductsCapellaStartTodayPageLocators.xlsx
+++ b/src/main/resources/CompilerDictionary/LocatorDictionary/ProductsCapellaStartTodayPageLocators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\IdeaProjects\CouchBase\src\main\resources\CompilerDictionary\LocatorDictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/Mobile-Web-Automation/src/main/resources/CompilerDictionary/LocatorDictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B38115-A137-4BF7-ADBE-7CFD97CF7A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1AD7A2-E697-F34C-BC01-0B7174B1A1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0C754237-3EAA-4D04-B296-2C57056C4427}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{0C754237-3EAA-4D04-B296-2C57056C4427}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Sno</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>div.logo img[alt = 'Capella Logo']</t>
+  </si>
+  <si>
+    <t>Locator Type</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Xpath</t>
   </si>
 </sst>
 </file>
@@ -557,21 +566,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD81B844-11A6-4015-88AF-C63B4798ECBF}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="2" width="73.36328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="67.36328125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="73.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="67.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +591,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -592,8 +605,11 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -603,8 +619,11 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -614,8 +633,11 @@
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -625,8 +647,11 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -636,8 +661,11 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -647,8 +675,11 @@
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -658,8 +689,11 @@
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -669,8 +703,11 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -680,8 +717,11 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -691,8 +731,11 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -702,8 +745,11 @@
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -713,8 +759,11 @@
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -724,8 +773,11 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
@@ -734,15 +786,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010029C582D7CAE7254D96CFAD30E11BEF03" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="582559788840a9edcb403f816335bebc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="538fb481-c731-4aaa-8000-78e7278c367d" xmlns:ns4="18a05938-05b3-4043-944c-3e784ce94118" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="45cc7787e06b96766817f6d0cea55fd1" ns3:_="" ns4:_="">
     <xsd:import namespace="538fb481-c731-4aaa-8000-78e7278c367d"/>
@@ -975,6 +1018,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -984,14 +1036,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B5C9C04-5033-4AEB-8D60-E8B827E92FDD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38579E32-18A8-4071-8A41-A0ABC288DF23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1006,6 +1050,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B5C9C04-5033-4AEB-8D60-E8B827E92FDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
